--- a/Örnek 33 - Eğer Harf Notu.xlsx
+++ b/Örnek 33 - Eğer Harf Notu.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88a89685dae84bb8/Masaüstü/excel ödevi 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A6BC295-695F-4858-89EA-E0E8AB29DF78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B7BE2F3-D5AD-4BA2-9289-501C71F8E746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" tabRatio="698"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12-geçtikaldı" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ali</t>
   </si>
@@ -109,12 +112,18 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>KÜBRA ÇABUK</t>
+  </si>
+  <si>
+    <t>YBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -655,12 +664,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="E2:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J7" sqref="J7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -697,7 +706,10 @@
       <c r="F4" s="3">
         <v>95</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="8" t="str">
+        <f>IF(F4&lt;25,"SIFIR",IF(F4&lt;45,"BİR",IF(F4&lt;55,"İKİ",IF(F4&lt;70,"ÜÇ",IF(F4&lt;85,"DÖRT","BEŞ")))))</f>
+        <v>BEŞ</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -709,11 +721,16 @@
       <c r="F5" s="5">
         <v>50</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8" t="str">
+        <f t="shared" ref="G5:G12" si="0">IF(F5&lt;25,"SIFIR",IF(F5&lt;45,"BİR",IF(F5&lt;55,"İKİ",IF(F5&lt;70,"ÜÇ",IF(F5&lt;85,"DÖRT","BEŞ")))))</f>
+        <v>İKİ</v>
+      </c>
       <c r="I5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="15">
+        <v>20215070019</v>
+      </c>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
     </row>
@@ -724,11 +741,16 @@
       <c r="F6" s="5">
         <v>45</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>İKİ</v>
+      </c>
       <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
     </row>
@@ -739,11 +761,16 @@
       <c r="F7" s="5">
         <v>44</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>BİR</v>
+      </c>
       <c r="I7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
     </row>
@@ -754,7 +781,10 @@
       <c r="F8" s="5">
         <v>20</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>SIFIR</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -766,7 +796,10 @@
       <c r="F9" s="5">
         <v>70</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>DÖRT</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -782,7 +815,10 @@
       <c r="F10" s="5">
         <v>45</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>İKİ</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -794,7 +830,10 @@
       <c r="F11" s="5">
         <v>60</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ÜÇ</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -806,7 +845,10 @@
       <c r="F12" s="7">
         <v>55</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>ÜÇ</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -824,6 +866,9 @@
       <c r="G15" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="H15">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="5:15" ht="20.25" x14ac:dyDescent="0.3">
       <c r="E16" s="16" t="s">
@@ -833,8 +878,11 @@
       <c r="G16" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="5:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="E17" s="16" t="s">
         <v>21</v>
       </c>
@@ -842,8 +890,11 @@
       <c r="G17" s="13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="5:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="E18" s="16" t="s">
         <v>20</v>
       </c>
@@ -851,8 +902,11 @@
       <c r="G18" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="5:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="E19" s="16" t="s">
         <v>19</v>
       </c>
@@ -860,8 +914,11 @@
       <c r="G19" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="5:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="E20" s="16" t="s">
         <v>17</v>
       </c>
